--- a/Bugreport.xlsx
+++ b/Bugreport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Bugreport" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,15 +11,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>STORE 99</t>
+  </si>
+  <si>
+    <t>Version No:</t>
+  </si>
+  <si>
+    <t>Verified By:</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -38,9 +67,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -257,7 +292,39 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bugreport.xlsx
+++ b/Bugreport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>STORE 99</t>
   </si>
@@ -22,10 +22,37 @@
     <t>Verified By:</t>
   </si>
   <si>
-    <t>Reported By</t>
+    <t>Reported By:</t>
   </si>
   <si>
     <t>Date:</t>
+  </si>
+  <si>
+    <t>OS:</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Bug Description</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -294,6 +321,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="15.0"/>
+    <col customWidth="1" min="2" max="2" width="39.75"/>
+    <col customWidth="1" min="3" max="3" width="39.63"/>
+    <col customWidth="1" min="4" max="4" width="35.63"/>
+    <col customWidth="1" min="5" max="5" width="17.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -317,13 +348,45 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Bugreport.xlsx
+++ b/Bugreport.xlsx
@@ -11,29 +11,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>STORE 99</t>
   </si>
   <si>
-    <t>Version No:</t>
-  </si>
-  <si>
-    <t>Verified By:</t>
-  </si>
-  <si>
-    <t>Reported By:</t>
+    <t>Version No:1.2.47</t>
+  </si>
+  <si>
+    <t>Reported to:</t>
+  </si>
+  <si>
+    <t>Identified By:</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>OS:</t>
+    <t>OS version :Android 13</t>
   </si>
   <si>
     <t>Bug ID</t>
   </si>
   <si>
+    <t>Test ID</t>
+  </si>
+  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -53,13 +56,336 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>DEF_STR99_SP_01</t>
+  </si>
+  <si>
+    <t>STR99_SP_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandatory fields should be marked with 
+'*' symbol
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandatory fields are not marked with 
+'*' symbol
+</t>
+  </si>
+  <si>
+    <t>1.open the application 
+2.click on user 
+3.click on register now</t>
+  </si>
+  <si>
+    <t>enhancement</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>DEF_STR99_SP_02</t>
+  </si>
+  <si>
+    <t>STR99_SP_05</t>
+  </si>
+  <si>
+    <t>name field should accept characters only</t>
+  </si>
+  <si>
+    <t>name field accepts numbers and special characters 
+also</t>
+  </si>
+  <si>
+    <t>1.open the application 
+2.click on user 
+3.click on register now
+4.enter numbers and special characters in 
+the name field</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>DEF_STR99_SP_03</t>
+  </si>
+  <si>
+    <t>STR99_SP_06</t>
+  </si>
+  <si>
+    <t>mobile number field should not accept more than 
+12 digits</t>
+  </si>
+  <si>
+    <t>mobile number field accepts more than 12 digits, not 
+displaying error validation message</t>
+  </si>
+  <si>
+    <t>1.open the application 
+2.click on user 
+3.click on register now
+4.enter mobile number(16 digits)</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>DEF_STR99_LP_04</t>
+  </si>
+  <si>
+    <t>STR99_LP_09</t>
+  </si>
+  <si>
+    <t>link to change the password should be 
+sent to the user mailid</t>
+  </si>
+  <si>
+    <t>link is not sent to the user's mailid</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.click on user
+3.click on signin
+4.click on forgot password link
+5.enter mailid
+6.click on submit</t>
+  </si>
+  <si>
+    <t>DEF_STR99_LP_05</t>
+  </si>
+  <si>
+    <t>STR99_LP_10</t>
+  </si>
+  <si>
+    <t>login should be possible through 
+social media account</t>
+  </si>
+  <si>
+    <t>login not get possible by social media account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the application
+2.click on user
+3.click on signin
+4.click on fb icon
+</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>DEF_STR99_SF_06</t>
+  </si>
+  <si>
+    <t>STR99_SF_02</t>
+  </si>
+  <si>
+    <t>cross option to clear the search keyword 
+should be present</t>
+  </si>
+  <si>
+    <t>cross option is absent in the search field</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on search field</t>
+  </si>
+  <si>
+    <t>DEF_STR99_SF_07</t>
+  </si>
+  <si>
+    <t>STR99_SF_05</t>
+  </si>
+  <si>
+    <t>user should be able to search based on 
+brand name</t>
+  </si>
+  <si>
+    <t>user is not able to search by giving brand name</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.enter the search text
+5.press enter</t>
+  </si>
+  <si>
+    <t>DEF_STR99_SF_08</t>
+  </si>
+  <si>
+    <t>STR99_SF_07</t>
+  </si>
+  <si>
+    <t>filter options should be present in the search results</t>
+  </si>
+  <si>
+    <t>filter options are absent in the search results</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.enter the search text
+5.press enter
+6.look for filter options</t>
+  </si>
+  <si>
+    <t>DEF_STR99_PD_09</t>
+  </si>
+  <si>
+    <t>STR99_PD_02</t>
+  </si>
+  <si>
+    <t>zooming view of image should be available</t>
+  </si>
+  <si>
+    <t>zooming view is not available</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product in the home page
+5.look for zoom view</t>
+  </si>
+  <si>
+    <t>DEF_STR99_PD_10</t>
+  </si>
+  <si>
+    <t>STR99_PD_06</t>
+  </si>
+  <si>
+    <t>product features should be mentioned in 
+additional information</t>
+  </si>
+  <si>
+    <t>additional information remains blank</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product in the home page
+5.click on additional information</t>
+  </si>
+  <si>
+    <t>DEF_STR99_PD_11</t>
+  </si>
+  <si>
+    <t>STR99_PD_07</t>
+  </si>
+  <si>
+    <t>all the product variations should get displayed</t>
+  </si>
+  <si>
+    <t>product variations are not present</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product in the home page
+5.look for product variations</t>
+  </si>
+  <si>
+    <t>DEF_STR99_PD_12</t>
+  </si>
+  <si>
+    <t>STR99_PD_09</t>
+  </si>
+  <si>
+    <t>product in stock/out stock details should mentioned</t>
+  </si>
+  <si>
+    <t>product stock details are not mentioned</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product in the home page</t>
+  </si>
+  <si>
+    <t>DEF_STR99_PD_13</t>
+  </si>
+  <si>
+    <t>STR99_PD_10</t>
+  </si>
+  <si>
+    <t>product suggestions related to product should be 
+displayed</t>
+  </si>
+  <si>
+    <t>product suggestions are not available for the product</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product in the home page
+5.look for product suggestions</t>
+  </si>
+  <si>
+    <t>DEF_STR99_PD_14</t>
+  </si>
+  <si>
+    <t>STR99_PD_11</t>
+  </si>
+  <si>
+    <t>offer details should be included in the product 
+details page</t>
+  </si>
+  <si>
+    <t>offer details are not included in the product 
+specification page</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product in the home page
+5.look for offer details</t>
+  </si>
+  <si>
+    <t>DEF_STR99_CP_15</t>
+  </si>
+  <si>
+    <t>STR99_CP_11</t>
+  </si>
+  <si>
+    <t>user should be able to apply coupons at checkout 
+from cart</t>
+  </si>
+  <si>
+    <t>user is not able to apply coupons in the coupon field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product displayed on home page
+5.click on cart icon
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -69,23 +395,31 @@
     <font>
       <b/>
       <sz val="12.0"/>
-      <color theme="1"/>
+      <color rgb="FFFF00FF"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,15 +428,33 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,11 +672,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="2" max="2" width="39.75"/>
-    <col customWidth="1" min="3" max="3" width="39.63"/>
-    <col customWidth="1" min="4" max="4" width="35.63"/>
-    <col customWidth="1" min="5" max="5" width="17.25"/>
+    <col customWidth="1" min="1" max="1" width="18.5"/>
+    <col customWidth="1" min="2" max="2" width="13.5"/>
+    <col customWidth="1" min="3" max="3" width="39.13"/>
+    <col customWidth="1" min="4" max="4" width="40.0"/>
+    <col customWidth="1" min="5" max="5" width="32.63"/>
+    <col customWidth="1" min="7" max="7" width="11.25"/>
+    <col customWidth="1" min="8" max="8" width="10.63"/>
+    <col customWidth="1" min="9" max="9" width="10.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -336,7 +691,9 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -344,7 +701,9 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -352,41 +711,463 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A4:C4"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Bugreport.xlsx
+++ b/Bugreport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
   <si>
     <t>STORE 99</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Reported to:</t>
   </si>
   <si>
-    <t>Identified By:</t>
+    <t>Identified by:Aiswarya</t>
   </si>
   <si>
     <t>Date:</t>
@@ -108,10 +108,7 @@
 the name field</t>
   </si>
   <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>medium</t>
+    <t>minor</t>
   </si>
   <si>
     <t>DEF_STR99_SP_03</t>
@@ -181,7 +178,7 @@
 </t>
   </si>
   <si>
-    <t>minor</t>
+    <t>medium</t>
   </si>
   <si>
     <t>DEF_STR99_SF_06</t>
@@ -243,6 +240,9 @@
 6.look for filter options</t>
   </si>
   <si>
+    <t>major</t>
+  </si>
+  <si>
     <t>DEF_STR99_PD_09</t>
   </si>
   <si>
@@ -380,12 +380,108 @@
 5.click on cart icon
 </t>
   </si>
+  <si>
+    <t>DEF_STR99_COP_16</t>
+  </si>
+  <si>
+    <t>STR99_COP_02</t>
+  </si>
+  <si>
+    <t>error message should displayed on filling invalid 
+input details</t>
+  </si>
+  <si>
+    <t>not displaying anyerror message while input invalid 
+data</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on cart icon
+5.click on checkout page</t>
+  </si>
+  <si>
+    <t>DEF_STR99_COP_17</t>
+  </si>
+  <si>
+    <t>STR99_COP_05</t>
+  </si>
+  <si>
+    <t>user should get order details by email or message</t>
+  </si>
+  <si>
+    <t>order details not sent to the user by mail or 
+message</t>
+  </si>
+  <si>
+    <t>DEF_STR99_COP_18</t>
+  </si>
+  <si>
+    <t>STR99_COP_11</t>
+  </si>
+  <si>
+    <t>successful payment email or message 
+should be delivered to customer along with unique 
+order number</t>
+  </si>
+  <si>
+    <t>message not get delivered to the customer on 
+successful ordering</t>
+  </si>
+  <si>
+    <t>DEF_STR99_OP_19</t>
+  </si>
+  <si>
+    <t>STR99_OP_01</t>
+  </si>
+  <si>
+    <t>Tracking information should be displayed for the 
+order made by the customer</t>
+  </si>
+  <si>
+    <t>order tracking is not possible</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on my orders</t>
+  </si>
+  <si>
+    <t>DEF_STR99_OP_20</t>
+  </si>
+  <si>
+    <t>STR99_OP_02</t>
+  </si>
+  <si>
+    <t>user should be able to change the delivery date 
+and time</t>
+  </si>
+  <si>
+    <t>not able to make any changes in delivery date and 
+time</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on my orders</t>
+  </si>
+  <si>
+    <t>user should be able to exchange the order from 
+their orders page</t>
+  </si>
+  <si>
+    <t>order exchange is not possible as exchange option is 
+available</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -400,12 +496,28 @@
     </font>
     <font>
       <b/>
+      <color rgb="FFCC4125"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFCC4125"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -428,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -436,7 +548,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -444,8 +556,20 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -455,6 +579,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,7 +803,7 @@
     <col customWidth="1" min="2" max="2" width="13.5"/>
     <col customWidth="1" min="3" max="3" width="39.13"/>
     <col customWidth="1" min="4" max="4" width="40.0"/>
-    <col customWidth="1" min="5" max="5" width="32.63"/>
+    <col customWidth="1" min="5" max="5" width="35.38"/>
     <col customWidth="1" min="7" max="7" width="11.25"/>
     <col customWidth="1" min="8" max="8" width="10.63"/>
     <col customWidth="1" min="9" max="9" width="10.13"/>
@@ -693,53 +820,53 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -787,11 +914,11 @@
         <v>27</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
+      <c r="H7" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>22</v>
@@ -799,26 +926,26 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>22</v>
@@ -826,26 +953,26 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>22</v>
@@ -853,26 +980,26 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>22</v>
@@ -880,19 +1007,19 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
@@ -907,23 +1034,23 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>21</v>
@@ -934,26 +1061,26 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>22</v>
@@ -977,7 +1104,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>21</v>
@@ -1004,10 +1131,10 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>22</v>
@@ -1031,7 +1158,7 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>21</v>
@@ -1058,10 +1185,10 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>22</v>
@@ -1085,7 +1212,7 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>21</v>
@@ -1112,10 +1239,10 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>22</v>
@@ -1134,40 +1261,183 @@
       <c r="D20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="H22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Bugreport.xlsx
+++ b/Bugreport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
   <si>
     <t>STORE 99</t>
   </si>
@@ -467,6 +467,12 @@
 2.enter username and password
 3.click on login button
 4.click on my orders</t>
+  </si>
+  <si>
+    <t>DEF_STR99_OP_21</t>
+  </si>
+  <si>
+    <t>STR99_OP_05</t>
   </si>
   <si>
     <t>user should be able to exchange the order from 
@@ -1408,13 +1414,16 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>115</v>
@@ -1432,12 +1441,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
